--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.46726082394342</v>
+        <v>11.07664366666667</v>
       </c>
       <c r="H2">
-        <v>6.46726082394342</v>
+        <v>33.229931</v>
       </c>
       <c r="I2">
-        <v>0.03952527010185897</v>
+        <v>0.06424093823669472</v>
       </c>
       <c r="J2">
-        <v>0.03952527010185897</v>
+        <v>0.06424093823669472</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N2">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q2">
-        <v>15.69445956516266</v>
+        <v>71.89348370518145</v>
       </c>
       <c r="R2">
-        <v>15.69445956516266</v>
+        <v>647.0413533466331</v>
       </c>
       <c r="S2">
-        <v>0.02480898119951174</v>
+        <v>0.05153193966114466</v>
       </c>
       <c r="T2">
-        <v>0.02480898119951174</v>
+        <v>0.05153193966114465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.46726082394342</v>
+        <v>11.07664366666667</v>
       </c>
       <c r="H3">
-        <v>6.46726082394342</v>
+        <v>33.229931</v>
       </c>
       <c r="I3">
-        <v>0.03952527010185897</v>
+        <v>0.06424093823669472</v>
       </c>
       <c r="J3">
-        <v>0.03952527010185897</v>
+        <v>0.06424093823669472</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q3">
-        <v>9.309701163048409</v>
+        <v>17.73063828003767</v>
       </c>
       <c r="R3">
-        <v>9.309701163048409</v>
+        <v>159.575744520339</v>
       </c>
       <c r="S3">
-        <v>0.01471628890234723</v>
+        <v>0.01270899857555007</v>
       </c>
       <c r="T3">
-        <v>0.01471628890234723</v>
+        <v>0.01270899857555006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>114.920582987554</v>
+        <v>115.4636816666667</v>
       </c>
       <c r="H4">
-        <v>114.920582987554</v>
+        <v>346.391045</v>
       </c>
       <c r="I4">
-        <v>0.7023479037724224</v>
+        <v>0.6696518788314407</v>
       </c>
       <c r="J4">
-        <v>0.7023479037724224</v>
+        <v>0.6696518788314407</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N4">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q4">
-        <v>278.8841353399026</v>
+        <v>749.4225296263261</v>
       </c>
       <c r="R4">
-        <v>278.8841353399026</v>
+        <v>6744.802766636934</v>
       </c>
       <c r="S4">
-        <v>0.440845461531381</v>
+        <v>0.537172419349918</v>
       </c>
       <c r="T4">
-        <v>0.440845461531381</v>
+        <v>0.537172419349918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>114.920582987554</v>
+        <v>115.4636816666667</v>
       </c>
       <c r="H5">
-        <v>114.920582987554</v>
+        <v>346.391045</v>
       </c>
       <c r="I5">
-        <v>0.7023479037724224</v>
+        <v>0.6696518788314407</v>
       </c>
       <c r="J5">
-        <v>0.7023479037724224</v>
+        <v>0.6696518788314407</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N5">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q5">
-        <v>165.4295866862958</v>
+        <v>184.8253709085117</v>
       </c>
       <c r="R5">
-        <v>165.4295866862958</v>
+        <v>1663.428338176605</v>
       </c>
       <c r="S5">
-        <v>0.2615024422410415</v>
+        <v>0.1324794594815228</v>
       </c>
       <c r="T5">
-        <v>0.2615024422410415</v>
+        <v>0.1324794594815228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.9992102800802</v>
+        <v>37.82775733333333</v>
       </c>
       <c r="H6">
-        <v>34.9992102800802</v>
+        <v>113.483272</v>
       </c>
       <c r="I6">
-        <v>0.2139009508554856</v>
+        <v>0.2193887151751843</v>
       </c>
       <c r="J6">
-        <v>0.2139009508554856</v>
+        <v>0.2193887151751843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N6">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q6">
-        <v>84.93451949853657</v>
+        <v>245.5228620950996</v>
       </c>
       <c r="R6">
-        <v>84.93451949853657</v>
+        <v>2209.705758855896</v>
       </c>
       <c r="S6">
-        <v>0.1342600481832468</v>
+        <v>0.1759863156277173</v>
       </c>
       <c r="T6">
-        <v>0.1342600481832468</v>
+        <v>0.1759863156277173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.9992102800802</v>
+        <v>37.82775733333333</v>
       </c>
       <c r="H7">
-        <v>34.9992102800802</v>
+        <v>113.483272</v>
       </c>
       <c r="I7">
-        <v>0.2139009508554856</v>
+        <v>0.2193887151751843</v>
       </c>
       <c r="J7">
-        <v>0.2139009508554856</v>
+        <v>0.2193887151751843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N7">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q7">
-        <v>50.38179184670055</v>
+        <v>60.55176120188533</v>
       </c>
       <c r="R7">
-        <v>50.38179184670055</v>
+        <v>544.965850816968</v>
       </c>
       <c r="S7">
-        <v>0.07964090267223886</v>
+        <v>0.04340239954746702</v>
       </c>
       <c r="T7">
-        <v>0.07964090267223886</v>
+        <v>0.04340239954746702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.23639003105341</v>
+        <v>8.055359000000001</v>
       </c>
       <c r="H8">
-        <v>7.23639003105341</v>
+        <v>24.166077</v>
       </c>
       <c r="I8">
-        <v>0.04422587527023294</v>
+        <v>0.04671846775668023</v>
       </c>
       <c r="J8">
-        <v>0.04422587527023294</v>
+        <v>0.04671846775668023</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N8">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O8">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P8">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q8">
-        <v>17.56094795491235</v>
+        <v>52.28369156161234</v>
       </c>
       <c r="R8">
-        <v>17.56094795491235</v>
+        <v>470.553224054511</v>
       </c>
       <c r="S8">
-        <v>0.02775942846901776</v>
+        <v>0.03747599782288371</v>
       </c>
       <c r="T8">
-        <v>0.02775942846901776</v>
+        <v>0.0374759978228837</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.23639003105341</v>
+        <v>8.055359000000001</v>
       </c>
       <c r="H9">
-        <v>7.23639003105341</v>
+        <v>24.166077</v>
       </c>
       <c r="I9">
-        <v>0.04422587527023294</v>
+        <v>0.04671846775668023</v>
       </c>
       <c r="J9">
-        <v>0.04422587527023294</v>
+        <v>0.04671846775668023</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N9">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q9">
-        <v>10.41687207649865</v>
+        <v>12.894398424557</v>
       </c>
       <c r="R9">
-        <v>10.41687207649865</v>
+        <v>116.049585821013</v>
       </c>
       <c r="S9">
-        <v>0.01646644680121518</v>
+        <v>0.009242469933796529</v>
       </c>
       <c r="T9">
-        <v>0.01646644680121518</v>
+        <v>0.009242469933796528</v>
       </c>
     </row>
   </sheetData>
